--- a/ig/nr-change-contained/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:08:55+00:00</t>
+    <t>2023-07-12T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:12:47+00:00</t>
+    <t>2023-07-12T08:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:15:17+00:00</t>
+    <t>2023-07-12T08:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:17:11+00:00</t>
+    <t>2023-07-12T08:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
